--- a/xlsx/土地管理_intext.xlsx
+++ b/xlsx/土地管理_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
+    <t>城市规划</t>
   </si>
   <si>
     <t>政策_政策_管理_土地管理</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>可持續農業</t>
+    <t>可持续农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Econ-stub</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤科學</t>
+    <t>土壤科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤學</t>
+    <t>土壤学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_physics</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤力學</t>
+    <t>土壤力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%8C%96%E5%AD%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤生態學</t>
+    <t>土壤生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_morphology</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E4%BE%B5%E8%9D%95</t>
   </si>
   <si>
-    <t>土壤侵蝕</t>
+    <t>土壤侵蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B1%A1%E6%9F%93</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E9%B9%BD%E5%8C%96</t>
   </si>
   <si>
-    <t>土壤鹽化</t>
+    <t>土壤盐化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E7%A2%B1%E5%9C%B0</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%B1%A4</t>
   </si>
   <si>
-    <t>土層</t>
+    <t>土层</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_biomantle</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>土壤氣體</t>
+    <t>土壤气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%91%BC%E5%90%B8</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E6%9C%89%E6%A9%9F%E8%B3%AA</t>
   </si>
   <si>
-    <t>土壤有機質</t>
+    <t>土壤有机质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E6%BF%95%E5%BA%A6</t>
   </si>
   <si>
-    <t>土壤濕度</t>
+    <t>土壤湿度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_water_(retention)</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BE%B2%E6%A5%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國農業部</t>
+    <t>美国农业部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/USDA_soil_taxonomy</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%87%8D%E5%9C%9F</t>
   </si>
   <si>
-    <t>冰凍土</t>
+    <t>冰冻土</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Histosols</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%86%E8%BB%9F%E5%9C%9F</t>
   </si>
   <si>
-    <t>鬆軟土</t>
+    <t>松软土</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oxisol</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E6%B7%8B%E6%BA%B6%E5%9C%9F</t>
   </si>
   <si>
-    <t>強淋溶土</t>
+    <t>强淋溶土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%82%E7%99%BD%E7%B4%85%E7%A0%82%E5%9C%9F</t>
   </si>
   <si>
-    <t>漂白紅砂土</t>
+    <t>漂白红砂土</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alisols</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%88%A3%E5%9C%9F</t>
   </si>
   <si>
-    <t>黑鈣土</t>
+    <t>黑钙土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%BB%E5%9C%9F</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>土壤保護</t>
+    <t>土壤保护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_management</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B8%AC%E9%87%8F</t>
   </si>
   <si>
-    <t>土地測量</t>
+    <t>土地测量</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_test</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E8%9D%95%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>侵蝕控制</t>
+    <t>侵蚀控制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_policy</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>生態農業</t>
+    <t>生态农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Liming_(soil)</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>地質學</t>
+    <t>地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地形學</t>
+    <t>地形学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%8A%9B%E5%B7%A5%E7%A8%8B</t>
@@ -713,37 +713,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>水文學</t>
+    <t>水文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>水文地質學</t>
+    <t>水文地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>農學</t>
+    <t>农学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E7%A7%91%E5%AD%B8%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>土壤科學國際聯盟</t>
+    <t>土壤科学国际联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_Science_Society_of_America</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%9F%E5%A3%A4%E5%B9%B4</t>
   </si>
   <si>
-    <t>國際土壤年</t>
+    <t>国际土壤年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%9F%E5%A3%A4%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>世界土壤大會</t>
+    <t>世界土壤大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%9C%9F%E4%BF%9D%E6%8C%81%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>水土保持協會</t>
+    <t>水土保持协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Land_use</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%AE%BC</t>
   </si>
   <si>
-    <t>地殼</t>
+    <t>地壳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Impervious_surface</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%A1%A8%E9%80%95%E6%B5%81</t>
   </si>
   <si>
-    <t>地表逕流</t>
+    <t>地表迳流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1205,25 +1205,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -1253,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1301,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1367,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
